--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2759.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2759.xlsx
@@ -354,7 +354,7 @@
         <v>2.424244334741046</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.367683881710619</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2759.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2759.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164120707428407</v>
+        <v>1.843037247657776</v>
       </c>
       <c r="B1">
-        <v>2.424244334741046</v>
+        <v>2.067568063735962</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.25141978263855</v>
       </c>
       <c r="D1">
-        <v>2.367683881710619</v>
+        <v>3.283270120620728</v>
       </c>
       <c r="E1">
-        <v>1.223378938227081</v>
+        <v>1.769476294517517</v>
       </c>
     </row>
   </sheetData>
